--- a/Consumer/Evolution AB.xlsx
+++ b/Consumer/Evolution AB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560E27B5-E4DE-A542-BC17-A95D0F57006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165937F-2B7D-1442-B513-51BA9FECF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="250">
   <si>
     <t>2012 Y</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1733,9 +1736,11 @@
     <v>Powered by Refinitiv</v>
     <v>1709</v>
     <v>168.4</v>
-    <v>1.1413</v>
-    <v>10.199999999999999</v>
-    <v>1.0099E-2</v>
+    <v>1.1397999999999999</v>
+    <v>4.5999999999999996</v>
+    <v>4.5190000000000004E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>SEK</v>
     <v>Evolution AB (publ), formerly Evolution Gaming Group AB (publ), is a Sweden-based company active in the Internet services sector.The Company develops, produces, markets and licenses fully-integrated business-to-business (B2B) live casino solutions for gaming operators. The gaming operators then market and offer the products to their end users.The Company provides its services through live casino studios across Europe, Canada and the USA.</v>
     <v>13366</v>
@@ -1743,24 +1748,25 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>1041</v>
+    <v>1031.4000000000001</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45233.520833333336</v>
+    <v>45239.708333333336</v>
     <v>0</v>
-    <v>1020.2</v>
-    <v>217718600000</v>
+    <v>999.3</v>
+    <v>219255600000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>1022.8</v>
-    <v>18.43</v>
-    <v>1010</v>
-    <v>1020.2</v>
+    <v>1012</v>
+    <v>18.66</v>
+    <v>1018</v>
+    <v>1022.6</v>
+    <v>1022.6</v>
     <v>215604800</v>
     <v>EVO</v>
     <v>Evolution AB (publ) (XSTO:EVO)</v>
-    <v>213865</v>
-    <v>626630</v>
+    <v>856441</v>
+    <v>526960</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1784,9 +1790,11 @@
     <v>Powered by Refinitiv</v>
     <v>138.405</v>
     <v>86.26</v>
-    <v>1.1413</v>
-    <v>3.35</v>
-    <v>3.6825000000000004E-2</v>
+    <v>1.1397999999999999</v>
+    <v>-0.55700000000000005</v>
+    <v>-5.9840000000000006E-3</v>
+    <v>0.45700000000000002</v>
+    <v>4.9389999999999998E-3</v>
     <v>USD</v>
     <v>Evolution AB (publ), formerly Evolution Gaming Group AB (publ), is a Sweden-based company active in the Internet services sector.The Company develops, produces, markets and licenses fully-integrated business-to-business (B2B) live casino solutions for gaming operators. The gaming operators then market and offer the products to their end users.The Company provides its services through live casino studios across Europe, Canada and the USA.</v>
     <v>13366</v>
@@ -1794,23 +1802,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>94.817499999999995</v>
+    <v>94.86</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45233.833137233596</v>
+    <v>45240.048611111109</v>
     <v>3</v>
-    <v>93.52</v>
-    <v>217718600000</v>
+    <v>92.470100000000002</v>
+    <v>219255600000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>93.67</v>
-    <v>90.97</v>
-    <v>94.32</v>
+    <v>94.74</v>
+    <v>93.08</v>
+    <v>92.522999999999996</v>
+    <v>92.98</v>
     <v>215604800</v>
     <v>EVVTY</v>
     <v>Evolution AB (publ) (OTCM:EVVTY)</v>
-    <v>35946</v>
-    <v>626630</v>
+    <v>146683</v>
+    <v>526960</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1830,15 +1839,18 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>2.2000000000000001E-3</v>
-    <v>2.4525999999999999E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>SEK</v>
+    <v>9.1600000000000001E-2</v>
     <v>Currency Pair</v>
-    <v>45233.874976851854</v>
+    <v>45240.306828703702</v>
+    <v>9.1399999999999995E-2</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
-    <v>8.9700000000000002E-2</v>
-    <v>9.1899999999999996E-2</v>
+    <v>9.1499999999999998E-2</v>
+    <v>9.1499999999999998E-2</v>
+    <v>9.1499999999999998E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -1871,6 +1883,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1891,6 +1905,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1918,6 +1933,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1937,6 +1954,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1962,9 +1980,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -1976,7 +1997,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1987,13 +2008,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2020,7 +2044,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2031,13 +2055,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2063,7 +2090,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2081,6 +2108,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2128,13 +2158,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Nordic</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2161,12 +2197,18 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
     <spb s="6">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="7">
       <v>2</v>
@@ -2177,7 +2219,10 @@
       <v>1</v>
     </spb>
     <spb s="9">
+      <v>10</v>
+      <v>10</v>
       <v>3</v>
+      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2233,6 +2278,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2240,6 +2288,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="Low" t="i"/>
@@ -2261,12 +2312,18 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -2277,7 +2334,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2677,9 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G184" sqref="G184"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13015,8 +13075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E94B7CF-484B-6B40-9B20-615CA952B7CA}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13065,7 +13125,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>19529358420</v>
+        <v>20061887400</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>199</v>
@@ -13093,14 +13153,14 @@
       </c>
       <c r="I3" s="41">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>31958384481.783752</v>
+        <v>31862302709.33548</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>203</v>
       </c>
       <c r="K3" s="106">
         <f>(Financials!M172*-1)/Model!A3</f>
-        <v>2.3876421896301087E-2</v>
+        <v>2.3242638726005412E-2</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>210</v>
@@ -13143,14 +13203,14 @@
       </c>
       <c r="I4" s="49">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>26625470819.310833</v>
+        <v>26541104345.750484</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>209</v>
       </c>
       <c r="K4" s="55" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.6825000000000004E-2</v>
+        <v>-5.9840000000000006E-3</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>248</v>
@@ -13193,14 +13253,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>27118535160.310833</v>
+        <v>27034168686.750484</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>216</v>
       </c>
       <c r="K5" s="107" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>94.32</v>
+        <v>92.522999999999996</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>217</v>
@@ -13218,7 +13278,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>10.208760282279142</v>
+        <v>10.48713403031887</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>219</v>
@@ -13246,14 +13306,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>8.8408242714992674E-2</v>
+        <v>8.8599452258240854E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>222</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>106.31859519968532</v>
+        <v>105.98783526380149</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>223</v>
@@ -13271,14 +13331,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>17.221656455026455</v>
+        <v>17.691258730158729</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="62">
         <f>F14/A3</f>
-        <v>5.3918821978382228E-2</v>
+        <v>5.2487583994714274E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>226</v>
@@ -13305,7 +13365,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>0.12721156912304199</v>
+        <v>0.14552960089709033</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>229</v>
@@ -13333,7 +13393,7 @@
       <c r="J8" s="42"/>
       <c r="K8" s="105" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>8.9700000000000002E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="L8" s="104" t="e" vm="3">
         <v>#VALUE!</v>
@@ -13615,7 +13675,7 @@
       </c>
       <c r="O14" s="87">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="42"/>
     </row>
@@ -13665,7 +13725,7 @@
       </c>
       <c r="O15" s="91" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1413</v>
+        <v>1.1397999999999999</v>
       </c>
       <c r="P15" s="42"/>
     </row>
@@ -13720,7 +13780,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9271903000000014E-2</v>
+        <v>8.9441016000000012E-2</v>
       </c>
       <c r="P17" s="42"/>
     </row>
@@ -13795,7 +13855,7 @@
       </c>
       <c r="O20" s="100">
         <f>A3</f>
-        <v>19529358420</v>
+        <v>20061887400</v>
       </c>
       <c r="P20" s="42"/>
     </row>
@@ -13810,14 +13870,16 @@
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>249</v>
+      </c>
       <c r="M21" s="78"/>
       <c r="N21" s="58" t="s">
         <v>244</v>
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>19616308934</v>
+        <v>20148837914</v>
       </c>
       <c r="P21" s="42"/>
     </row>
@@ -13840,7 +13902,7 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>4.4325624301977057E-3</v>
+        <v>4.3154108624589337E-3</v>
       </c>
       <c r="P22" s="42"/>
     </row>
@@ -13863,7 +13925,7 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99556743756980226</v>
+        <v>0.9956845891375411</v>
       </c>
       <c r="P23" s="42"/>
     </row>
@@ -13903,7 +13965,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8408242714992674E-2</v>
+        <v>8.8599452258240854E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="42"/>

--- a/Consumer/Evolution AB.xlsx
+++ b/Consumer/Evolution AB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165937F-2B7D-1442-B513-51BA9FECF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C022E8-EFFD-434A-AB73-0A7EBD598444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="251">
   <si>
     <t>2012 Y</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1000,6 +1003,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1083,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1128,65 +1137,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1195,23 +1147,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,7 +1243,137 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1229,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,255 +1446,267 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,6 +1744,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1597,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1609,6 +1774,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1736,9 +1902,9 @@
     <v>Powered by Refinitiv</v>
     <v>1709</v>
     <v>168.4</v>
-    <v>1.1397999999999999</v>
-    <v>4.5999999999999996</v>
-    <v>4.5190000000000004E-3</v>
+    <v>1.1117999999999999</v>
+    <v>7.4</v>
+    <v>6.8050000000000003E-3</v>
     <v>0</v>
     <v>0</v>
     <v>SEK</v>
@@ -1748,25 +1914,25 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>1031.4000000000001</v>
+    <v>1103</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45239.708333333336</v>
+    <v>45261.708333333336</v>
     <v>0</v>
-    <v>999.3</v>
-    <v>219255600000</v>
+    <v>1073.5999999999999</v>
+    <v>235771700000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>1012</v>
-    <v>18.66</v>
-    <v>1018</v>
-    <v>1022.6</v>
-    <v>1022.6</v>
+    <v>1077.8</v>
+    <v>19.84</v>
+    <v>1087.4000000000001</v>
+    <v>1094.8</v>
+    <v>1094.8</v>
     <v>215604800</v>
     <v>EVO</v>
     <v>Evolution AB (publ) (XSTO:EVO)</v>
-    <v>856441</v>
-    <v>526960</v>
+    <v>681340</v>
+    <v>522110</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1790,11 +1956,11 @@
     <v>Powered by Refinitiv</v>
     <v>138.405</v>
     <v>86.26</v>
-    <v>1.1397999999999999</v>
-    <v>-0.55700000000000005</v>
-    <v>-5.9840000000000006E-3</v>
-    <v>0.45700000000000002</v>
-    <v>4.9389999999999998E-3</v>
+    <v>1.1117999999999999</v>
+    <v>1.68</v>
+    <v>1.6174000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Evolution AB (publ), formerly Evolution Gaming Group AB (publ), is a Sweden-based company active in the Internet services sector.The Company develops, produces, markets and licenses fully-integrated business-to-business (B2B) live casino solutions for gaming operators. The gaming operators then market and offer the products to their end users.The Company provides its services through live casino studios across Europe, Canada and the USA.</v>
     <v>13366</v>
@@ -1802,24 +1968,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>94.86</v>
+    <v>106.0051</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45240.048611111109</v>
+    <v>45262.048611111109</v>
     <v>3</v>
-    <v>92.470100000000002</v>
-    <v>219255600000</v>
+    <v>103.97</v>
+    <v>235771700000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>94.74</v>
-    <v>93.08</v>
-    <v>92.522999999999996</v>
-    <v>92.98</v>
+    <v>104.16</v>
+    <v>103.87</v>
+    <v>105.55</v>
+    <v>105.55</v>
     <v>215604800</v>
     <v>EVVTY</v>
     <v>Evolution AB (publ) (OTCM:EVVTY)</v>
-    <v>146683</v>
-    <v>526960</v>
+    <v>151198</v>
+    <v>522110</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1839,18 +2005,15 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1999999999999999E-3</v>
+    <v>1.2605E-2</v>
     <v>USD</v>
     <v>SEK</v>
-    <v>9.1600000000000001E-2</v>
     <v>Currency Pair</v>
-    <v>45240.306828703702</v>
-    <v>9.1399999999999995E-2</v>
+    <v>45261.916678240741</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
-    <v>9.1499999999999998E-2</v>
-    <v>9.1499999999999998E-2</v>
-    <v>9.1499999999999998E-2</v>
+    <v>9.5200000000000007E-2</v>
+    <v>9.64E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -1980,12 +2143,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2090,7 +2250,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2108,9 +2268,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2219,10 +2376,7 @@
       <v>1</v>
     </spb>
     <spb s="9">
-      <v>10</v>
-      <v>10</v>
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2334,10 +2488,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2737,9 +2888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13075,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E94B7CF-484B-6B40-9B20-615CA952B7CA}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13084,1738 +13235,1796 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="2">
+    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-    </row>
-    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+    </row>
+    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" cm="1">
+      <c r="A3" s="67" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>20061887400</v>
-      </c>
-      <c r="B3" s="37" t="s">
+        <v>22445465840</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="69">
         <f>Financials!M8*0.01</f>
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="69">
         <f>SUM(C11:E11)/3</f>
         <v>0.57583224142524292</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="40">
-        <f>AVERAGE(Financials!H129:L129)</f>
-        <v>3.6607533162473248E-2</v>
-      </c>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="71">
+        <f>AVERAGE(Financials!L129:Q129)</f>
+        <v>3.5400142596736517E-4</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="41">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>31862302709.33548</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="72">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>32233593761.557842</v>
+      </c>
+      <c r="J3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="106">
+      <c r="K3" s="74">
         <f>(Financials!M172*-1)/Model!A3</f>
-        <v>2.3242638726005412E-2</v>
-      </c>
-      <c r="L3" s="39" t="s">
+        <v>2.077440514373392E-2</v>
+      </c>
+      <c r="L3" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="115" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="76">
         <f>Financials!M56-Financials!M96-Financials!M105</f>
         <v>493064341</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="38">
         <f>Financials!M17*0.01</f>
         <v>0.62750000000000006</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="38">
         <f>SUM(C13:E13)/3</f>
         <v>0.7874640856014995</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
-        <v>255068599.32994205</v>
-      </c>
-      <c r="H4" s="48" t="s">
+        <v>215986422.03322703</v>
+      </c>
+      <c r="H4" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="49">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>26541104345.750484</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="37">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>26867140203.263111</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="55" cm="1">
+      <c r="K4" s="80" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.9840000000000006E-3</v>
-      </c>
-      <c r="L4" s="48" t="s">
+        <v>1.6174000000000001E-2</v>
+      </c>
+      <c r="L4" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="117" t="s">
+      <c r="M4" s="36"/>
+      <c r="N4" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="118"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="76" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>215604800</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="50">
-        <f>Financials!M34*0.01</f>
-        <v>0.57950000000000002</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="38">
+        <f>F14</f>
+        <v>0.59278619968635649</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="45">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="38">
+        <f>SUM(C16:E16)/3</f>
         <v>0.75150668803200349</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="79">
         <f>Financials!M56</f>
         <v>580014855</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="37">
         <f>I4+G5-G6</f>
-        <v>27034168686.750484</v>
-      </c>
-      <c r="J5" s="46" t="s">
+        <v>27360204544.263111</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="107" cm="1">
+      <c r="K5" s="83" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>92.522999999999996</v>
-      </c>
-      <c r="L5" s="44" t="s">
+        <v>105.55</v>
+      </c>
+      <c r="L5" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="100">
         <f>Financials!M20</f>
         <v>-9860551</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="85">
         <f>O20/F10</f>
-        <v>10.48713403031887</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>11.733123805541036</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="45">
-        <f>Financials!M190</f>
-        <v>0.54505267662785284</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="38">
+        <f>F17</f>
+        <v>0.55044432828018819</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="38">
         <f>Financials!M33/Financials!M126</f>
         <v>0.27263610634524199</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="79">
         <f>Financials!M96+Financials!M105</f>
         <v>86950514</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="80">
         <f>N25</f>
-        <v>8.8599452258240854E-2</v>
-      </c>
-      <c r="J6" s="48" t="s">
+        <v>8.7866865388641135E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="86">
         <f>I5/G4</f>
-        <v>105.98783526380149</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>126.67557657885577</v>
+      </c>
+      <c r="L6" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="36"/>
+      <c r="N6" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="100">
         <f>Financials!M96</f>
         <v>15407101</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
         <f>O20/F12</f>
-        <v>17.691258730158729</v>
-      </c>
-      <c r="B7" s="61" t="s">
+        <v>19.79317975308642</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="62">
-        <f>F14/A3</f>
-        <v>5.2487583994714274E-2</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="90">
+        <f>F15/A3</f>
+        <v>4.6913706648202047E-2</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="91">
         <f>(Financials!M16*(1-0.25))/(Financials!M126+Financials!M105+Financials!M96)</f>
         <v>0.21637045458174373</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="92">
         <f>(Financials!M96+Financials!M105)/Financials!M126</f>
         <v>2.3323729274785439E-2</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="94">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="96">
         <f>K6/K5-1</f>
-        <v>0.14552960089709033</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>0.20014757535628402</v>
+      </c>
+      <c r="L7" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="100">
         <f>Financials!M105</f>
         <v>71543413</v>
       </c>
-      <c r="P7" s="42"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="105" cm="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="97" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="L8" s="104" t="e" vm="3">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="L8" s="98" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="72" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="102">
         <f>O5/(O6+O7)</f>
         <v>-0.11340417148080344</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48">
         <v>2019</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="48">
         <v>2020</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="48">
         <v>2021</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="49">
         <v>2022</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="50">
         <v>2023</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="51">
         <v>2024</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="51">
         <v>2025</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="51">
         <v>2026</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="52">
         <v>2027</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="100">
         <f>Financials!M25</f>
         <v>75397526</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="54">
         <v>410008010</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="54">
         <v>685312954</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="54">
         <v>1214985747</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="55">
         <v>1558999879</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="54">
         <v>1913000000</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="54">
         <v>2281000000</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="54">
         <v>2665000000</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="54">
         <v>3048000000</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="55">
         <v>3425000000</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="40"/>
+      <c r="N10" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="100">
         <f>Financials!M24</f>
         <v>1091780854</v>
       </c>
-      <c r="P10" s="42"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="A11" s="57"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.67146235508911145</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>0.77289184438792913</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0.28314252479868807</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>0.22706872897711117</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>0.19236800836382639</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>0.16834721613327486</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>0.14371482176360217</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="58">
         <f t="shared" si="0"/>
         <v>0.12368766404199483</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="58">
         <f>SUM(F11:J11)/5</f>
         <v>0.17103728785596189</v>
       </c>
-      <c r="M11" s="78"/>
-      <c r="N11" s="58" t="s">
+      <c r="M11" s="40"/>
+      <c r="N11" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="103">
         <f>O9/O10</f>
         <v>6.905921250016718E-2</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="54">
         <v>167842853</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="54">
         <v>347608849</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="54">
         <v>688258538</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="54">
         <v>902564908</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="59">
         <v>1134000000</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="54">
         <v>1238000000</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="54">
         <v>1469000000</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="54">
         <v>1680000000</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="55">
         <v>1758000000</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="88" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="103">
         <f>O8*(1-O11)</f>
         <v>-0.10557256870410522</v>
       </c>
-      <c r="P12" s="42"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84">
+      <c r="A13" s="57"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.0710375377139232</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>0.97997991127090089</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>0.3113748078196743</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.25641933333397438</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>9.1710758377425039E-2</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>0.18659127625201943</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>0.14363512593601091</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="58">
         <f t="shared" si="1"/>
         <v>4.6428571428571486E-2</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="58">
         <f>SUM(F13:J13)/5</f>
         <v>0.14495701306560024</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="117" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="O13" s="118"/>
-      <c r="P13" s="42"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="44">
+        <f>B12/B10</f>
+        <v>0.40936481460447566</v>
+      </c>
+      <c r="C14" s="44">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.50722643862354311</v>
+      </c>
+      <c r="D14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.56647457774663101</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.5789384079868809</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.59278619968635649</v>
+      </c>
+      <c r="G14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.54274441034633936</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.551219512195122</v>
+      </c>
+      <c r="I14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.55118110236220474</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.51328467153284674</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="O14" s="103">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B15" s="54">
         <v>163537698</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C15" s="54">
         <v>342183671</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D15" s="54">
         <v>613782372</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E15" s="54">
         <v>839908411</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F15" s="59">
         <v>1053000000</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G15" s="54">
         <v>1255000000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H15" s="54">
         <v>1489000000</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I15" s="54">
         <v>1721000000</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J15" s="55">
         <v>1977000000</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K15" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="O14" s="87">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="104" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.1117999999999999</v>
+      </c>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.0923840508015465</v>
       </c>
-      <c r="D15" s="84">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>0.79372198038053088</v>
       </c>
-      <c r="E15" s="84">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>0.36841403291393315</v>
       </c>
-      <c r="F15" s="85">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>0.25370812603994741</v>
       </c>
-      <c r="G15" s="84">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>0.19183285849952525</v>
       </c>
-      <c r="H15" s="84">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>0.18645418326693219</v>
       </c>
-      <c r="I15" s="84">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>0.15580926796507732</v>
       </c>
-      <c r="J15" s="84">
-        <f t="shared" si="2"/>
+      <c r="J16" s="58">
+        <f t="shared" si="3"/>
         <v>0.14875072632190589</v>
       </c>
-      <c r="K15" s="86">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="58">
+        <f>SUM(F16:J16)/5</f>
         <v>0.18731103241867761</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="O15" s="91" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1397999999999999</v>
-      </c>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="O16" s="103">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="44">
+        <f>B15/B10</f>
+        <v>0.39886464169321961</v>
+      </c>
+      <c r="C17" s="44">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.49931008746115135</v>
+      </c>
+      <c r="D17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.50517660270133191</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.53874822077519868</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.55044432828018819</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.55019728189390615</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.55872420262664169</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.56463254593175849</v>
+      </c>
+      <c r="J17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.57722627737226273</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="106">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>8.8616221999999994E-2</v>
+      </c>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B18" s="63">
         <v>0.38604278747694837</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C18" s="63">
         <v>8.0966738012598627E-2</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D18" s="63">
         <v>0.15051829532019345</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E18" s="63">
         <v>0.19239503885855166</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="O16" s="87">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="42"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="O17" s="98">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9441016000000012E-2</v>
-      </c>
-      <c r="P17" s="42"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="117" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="42"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="119" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2014</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="58" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="107">
         <f>O6+O7</f>
         <v>86950514</v>
       </c>
-      <c r="P19" s="42"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" s="107">
+        <f>A3</f>
+        <v>22445465840</v>
+      </c>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2014</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="M21" s="40"/>
+      <c r="N21" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="O21" s="107">
+        <f>O19+O20</f>
+        <v>22532416354</v>
+      </c>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Evolution AB (publ), formerly Evolution Gaming Group AB (publ), is a Sweden-based company active in the Internet services sector.The Company develops, produces, markets and licenses fully-integrated business-to-business (B2B) live casino solutions for gaming operators. The gaming operators then market and offer the products to their end users.The Company provides its services through live casino studios across Europe, Canada and the USA.</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" s="100">
-        <f>A3</f>
-        <v>20061887400</v>
-      </c>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="M21" s="78"/>
-      <c r="N21" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="O21" s="100">
-        <f>O19+O20</f>
-        <v>20148837914</v>
-      </c>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="72" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>4.3154108624589337E-3</v>
-      </c>
-      <c r="P22" s="42"/>
+        <v>3.8589076570371634E-3</v>
+      </c>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="97" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.9956845891375411</v>
-      </c>
-      <c r="P23" s="42"/>
+        <v>0.99614109234296289</v>
+      </c>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="109" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="110" t="s">
         <v>247</v>
       </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="42"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="111">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8599452258240854E-2</v>
-      </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="42"/>
+        <v>8.7866865388641135E-2</v>
+      </c>
+      <c r="O25" s="113"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="42"/>
-      <c r="P95" s="42"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="42"/>
-      <c r="P100" s="42"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="36"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -14823,8 +15032,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/OTCPK:EVVT.Y/explorer/revenue_proj" xr:uid="{6F0D7CE8-5978-CA42-A6BC-EE504E1E48C2}"/>

--- a/Consumer/Evolution AB.xlsx
+++ b/Consumer/Evolution AB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C022E8-EFFD-434A-AB73-0A7EBD598444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A117956C-5E4C-B04F-9E8F-E831B796E1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1666,6 +1666,9 @@
     <xf numFmtId="10" fontId="18" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,9 +1701,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1739,10 +1739,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1762,7 +1764,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1775,6 +1777,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1902,9 +1906,9 @@
     <v>Powered by Refinitiv</v>
     <v>1709</v>
     <v>168.4</v>
-    <v>1.1117999999999999</v>
-    <v>7.4</v>
-    <v>6.8050000000000003E-3</v>
+    <v>1.1104000000000001</v>
+    <v>32</v>
+    <v>2.8658000000000003E-2</v>
     <v>0</v>
     <v>0</v>
     <v>SEK</v>
@@ -1914,25 +1918,25 @@
     <v>XSTO</v>
     <v>XSTO</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>1103</v>
+    <v>1156.5999999999999</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45261.708333333336</v>
+    <v>45268.708333333336</v>
     <v>0</v>
-    <v>1073.5999999999999</v>
-    <v>235771700000</v>
+    <v>1118.8</v>
+    <v>239285400000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>1077.8</v>
-    <v>19.84</v>
-    <v>1087.4000000000001</v>
-    <v>1094.8</v>
-    <v>1094.8</v>
+    <v>1120</v>
+    <v>20.37</v>
+    <v>1116.5999999999999</v>
+    <v>1148.5999999999999</v>
+    <v>1148.5999999999999</v>
     <v>215604800</v>
     <v>EVO</v>
     <v>Evolution AB (publ) (XSTO:EVO)</v>
-    <v>681340</v>
-    <v>522110</v>
+    <v>607512</v>
+    <v>588750</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1956,9 +1960,9 @@
     <v>Powered by Refinitiv</v>
     <v>138.405</v>
     <v>86.26</v>
-    <v>1.1117999999999999</v>
-    <v>1.68</v>
-    <v>1.6174000000000001E-2</v>
+    <v>1.1104000000000001</v>
+    <v>2</v>
+    <v>1.8599000000000001E-2</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -1968,24 +1972,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Vasagatan 16, STOCKHOLM, STOCKHOLM, 11120 SE</v>
-    <v>106.0051</v>
+    <v>110.5425</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45262.048611111109</v>
+    <v>45269.048611111109</v>
     <v>3</v>
-    <v>103.97</v>
-    <v>235771700000</v>
+    <v>109.01</v>
+    <v>239285400000</v>
     <v>Evolution AB (publ)</v>
     <v>Evolution AB (publ)</v>
-    <v>104.16</v>
-    <v>103.87</v>
-    <v>105.55</v>
-    <v>105.55</v>
+    <v>109.25</v>
+    <v>107.53</v>
+    <v>109.53</v>
+    <v>109.53</v>
     <v>215604800</v>
     <v>EVVTY</v>
     <v>Evolution AB (publ) (OTCM:EVVTY)</v>
-    <v>151198</v>
-    <v>522110</v>
+    <v>67668</v>
+    <v>621610</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2005,15 +2009,15 @@
     <v>Powered by Refinitiv</v>
     <v>9.8699999999999996E-2</v>
     <v>8.8599999999999998E-2</v>
-    <v>1.1999999999999999E-3</v>
-    <v>1.2605E-2</v>
+    <v>-8.0000000000000004E-4</v>
+    <v>-8.3160000000000005E-3</v>
     <v>USD</v>
     <v>SEK</v>
     <v>Currency Pair</v>
-    <v>45261.916678240741</v>
+    <v>45268.916666666664</v>
     <v>Swedish Krona/US Dollar FX Cross Rate</v>
-    <v>9.5200000000000007E-2</v>
-    <v>9.64E-2</v>
+    <v>9.6199999999999994E-2</v>
+    <v>9.5399999999999999E-2</v>
     <v>SEKUSD</v>
     <v>SEK/USD</v>
   </rv>
@@ -13227,7 +13231,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13235,48 +13239,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="2">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="67" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>22445465840</v>
+        <v>23019255480</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>199</v>
@@ -13304,23 +13308,23 @@
       </c>
       <c r="I3" s="72">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>32233593761.557842</v>
+        <v>32169120847.600235</v>
       </c>
       <c r="J3" s="73" t="s">
         <v>203</v>
       </c>
       <c r="K3" s="74">
         <f>(Financials!M172*-1)/Model!A3</f>
-        <v>2.077440514373392E-2</v>
+        <v>2.0256571782051397E-2</v>
       </c>
       <c r="L3" s="75" t="s">
         <v>210</v>
       </c>
       <c r="M3" s="36"/>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="117"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13354,23 +13358,23 @@
       </c>
       <c r="I4" s="37">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>26867140203.263111</v>
+        <v>26810522459.874512</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>209</v>
       </c>
       <c r="K4" s="80" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6174000000000001E-2</v>
+        <v>1.8599000000000001E-2</v>
       </c>
       <c r="L4" s="81" t="s">
         <v>248</v>
       </c>
       <c r="M4" s="36"/>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13404,14 +13408,14 @@
       </c>
       <c r="I5" s="37">
         <f>I4+G5-G6</f>
-        <v>27360204544.263111</v>
+        <v>27303586800.874512</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>216</v>
       </c>
       <c r="K5" s="83" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>105.55</v>
+        <v>109.53</v>
       </c>
       <c r="L5" s="84" t="s">
         <v>217</v>
@@ -13429,7 +13433,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="85">
         <f>O20/F10</f>
-        <v>11.733123805541036</v>
+        <v>12.033066116048092</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>219</v>
@@ -13457,14 +13461,14 @@
       </c>
       <c r="I6" s="80">
         <f>N25</f>
-        <v>8.7866865388641135E-2</v>
+        <v>8.7992862304198408E-2</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>222</v>
       </c>
       <c r="K6" s="86">
         <f>I5/G4</f>
-        <v>126.67557657885577</v>
+        <v>126.41344091840259</v>
       </c>
       <c r="L6" s="87" t="s">
         <v>223</v>
@@ -13482,14 +13486,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <f>O20/F12</f>
-        <v>19.79317975308642</v>
+        <v>20.29916708994709</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="90">
         <f>F15/A3</f>
-        <v>4.6913706648202047E-2</v>
+        <v>4.5744311796482133E-2</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>226</v>
@@ -13516,7 +13520,7 @@
       </c>
       <c r="K7" s="96">
         <f>K6/K5-1</f>
-        <v>0.20014757535628402</v>
+        <v>0.15414444369946656</v>
       </c>
       <c r="L7" s="87" t="s">
         <v>229</v>
@@ -13544,7 +13548,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="97" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>9.5200000000000007E-2</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="L8" s="98" t="e" vm="3">
         <v>#VALUE!</v>
@@ -13779,10 +13783,10 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -13833,7 +13837,7 @@
       </c>
       <c r="O14" s="103">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="36"/>
     </row>
@@ -13878,7 +13882,7 @@
       </c>
       <c r="O15" s="104" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1117999999999999</v>
+        <v>1.1104000000000001</v>
       </c>
       <c r="P15" s="36"/>
     </row>
@@ -13979,7 +13983,7 @@
       </c>
       <c r="O17" s="106">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.8616221999999994E-2</v>
+        <v>8.8724016000000017E-2</v>
       </c>
       <c r="P17" s="36"/>
     </row>
@@ -14007,10 +14011,10 @@
       <c r="K18" s="66"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14055,7 +14059,7 @@
       </c>
       <c r="O20" s="107">
         <f>A3</f>
-        <v>22445465840</v>
+        <v>23019255480</v>
       </c>
       <c r="P20" s="36"/>
     </row>
@@ -14085,19 +14089,19 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>22532416354</v>
+        <v>23106205994</v>
       </c>
       <c r="P21" s="36"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="str" cm="1">
+      <c r="A22" s="121" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Evolution AB (publ), formerly Evolution Gaming Group AB (publ), is a Sweden-based company active in the Internet services sector.The Company develops, produces, markets and licenses fully-integrated business-to-business (B2B) live casino solutions for gaming operators. The gaming operators then market and offer the products to their end users.The Company provides its services through live casino studios across Europe, Canada and the USA.</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -14111,16 +14115,16 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>3.8589076570371634E-3</v>
+        <v>3.7630805344061454E-3</v>
       </c>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -14134,16 +14138,16 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.99614109234296289</v>
+        <v>0.9962369194655939</v>
       </c>
       <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -14152,18 +14156,18 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="O24" s="111"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -14172,19 +14176,19 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="112">
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.7866865388641135E-2</v>
-      </c>
-      <c r="O25" s="113"/>
+        <v>8.7992862304198408E-2</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -14198,11 +14202,11 @@
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -14216,11 +14220,11 @@
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -14234,11 +14238,11 @@
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -14252,11 +14256,11 @@
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
